--- a/data/Contact_Recreation/WhanganuiatTownBridge_de9755c7bd.xlsx
+++ b/data/Contact_Recreation/WhanganuiatTownBridge_de9755c7bd.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -531,7 +531,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -570,7 +570,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -609,7 +609,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -648,7 +648,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -687,7 +687,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -726,7 +726,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -765,7 +765,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -804,7 +804,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -843,7 +843,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -921,7 +921,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -960,7 +960,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -999,7 +999,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1662,7 +1662,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
@@ -2208,7 +2208,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -2247,7 +2247,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -2325,7 +2325,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -2442,7 +2442,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2520,7 +2520,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
@@ -2598,7 +2598,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2637,7 +2637,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2676,7 +2676,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2715,7 +2715,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -2793,7 +2793,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -2910,7 +2910,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -2949,7 +2949,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
@@ -2988,7 +2988,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
@@ -3066,7 +3066,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
@@ -3105,7 +3105,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
@@ -3144,7 +3144,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
@@ -3222,7 +3222,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
@@ -3261,7 +3261,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
@@ -3300,7 +3300,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -3339,7 +3339,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
@@ -3378,7 +3378,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
@@ -3456,7 +3456,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
@@ -3534,7 +3534,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
@@ -3573,7 +3573,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
@@ -3612,7 +3612,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
@@ -3651,7 +3651,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
@@ -3690,7 +3690,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
@@ -3729,7 +3729,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
@@ -3768,7 +3768,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
@@ -3846,7 +3846,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
@@ -3885,7 +3885,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -4002,7 +4002,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
@@ -4041,7 +4041,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -4080,7 +4080,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
@@ -4119,7 +4119,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
@@ -4158,7 +4158,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
@@ -4197,7 +4197,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
@@ -4236,7 +4236,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
@@ -4275,7 +4275,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C99" s="2" t="n">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
@@ -4353,7 +4353,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
@@ -4392,7 +4392,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
@@ -4470,7 +4470,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
@@ -4509,7 +4509,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C105" s="2" t="n">
@@ -4548,7 +4548,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C106" s="2" t="n">
@@ -4587,7 +4587,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C107" s="2" t="n">
@@ -4626,7 +4626,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C108" s="2" t="n">
@@ -4665,7 +4665,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C109" s="2" t="n">
@@ -4704,7 +4704,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
@@ -4743,7 +4743,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C111" s="2" t="n">
@@ -4782,7 +4782,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
@@ -4821,7 +4821,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C113" s="2" t="n">
@@ -4860,7 +4860,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C114" s="2" t="n">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C115" s="2" t="n">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C116" s="2" t="n">
@@ -4977,7 +4977,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C117" s="2" t="n">
@@ -5016,7 +5016,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
@@ -5055,7 +5055,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C119" s="2" t="n">
@@ -5094,7 +5094,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
@@ -5133,7 +5133,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C121" s="2" t="n">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
@@ -5211,7 +5211,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C123" s="2" t="n">
@@ -5250,7 +5250,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C124" s="2" t="n">
@@ -5289,7 +5289,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C125" s="2" t="n">
@@ -5328,7 +5328,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C126" s="2" t="n">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C127" s="2" t="n">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C128" s="2" t="n">
@@ -5445,7 +5445,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C129" s="2" t="n">
@@ -5484,7 +5484,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C130" s="2" t="n">
@@ -5523,7 +5523,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C131" s="2" t="n">
@@ -5562,7 +5562,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C132" s="2" t="n">
@@ -5601,7 +5601,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C133" s="2" t="n">
@@ -5640,7 +5640,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C134" s="2" t="n">
@@ -5679,7 +5679,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C135" s="2" t="n">
@@ -5718,7 +5718,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C136" s="2" t="n">
@@ -5757,7 +5757,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C137" s="2" t="n">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C138" s="2" t="n">
@@ -5835,7 +5835,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C139" s="2" t="n">
@@ -5874,7 +5874,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C140" s="2" t="n">
@@ -5913,7 +5913,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C141" s="2" t="n">
@@ -5952,7 +5952,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C142" s="2" t="n">
@@ -5991,7 +5991,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C143" s="2" t="n">
@@ -6030,7 +6030,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C144" s="2" t="n">
@@ -6069,7 +6069,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C145" s="2" t="n">
@@ -6108,7 +6108,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C146" s="2" t="n">
@@ -6147,7 +6147,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C147" s="2" t="n">
@@ -6186,7 +6186,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C148" s="2" t="n">
@@ -6225,7 +6225,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C149" s="2" t="n">
@@ -6264,7 +6264,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C150" s="2" t="n">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C151" s="2" t="n">
@@ -6342,7 +6342,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C152" s="2" t="n">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C153" s="2" t="n">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C154" s="2" t="n">
@@ -6459,7 +6459,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C155" s="2" t="n">
@@ -6498,7 +6498,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C156" s="2" t="n">
@@ -6537,7 +6537,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C157" s="2" t="n">
@@ -6576,7 +6576,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C158" s="2" t="n">
@@ -6615,7 +6615,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C159" s="2" t="n">
@@ -6654,7 +6654,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C160" s="2" t="n">
@@ -6693,7 +6693,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C161" s="2" t="n">
@@ -6732,7 +6732,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C162" s="2" t="n">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C163" s="2" t="n">
@@ -6810,7 +6810,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C164" s="2" t="n">
@@ -6849,7 +6849,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C165" s="2" t="n">
@@ -6888,7 +6888,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C166" s="2" t="n">
@@ -6927,7 +6927,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C167" s="2" t="n">
@@ -6966,7 +6966,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C168" s="2" t="n">
@@ -7005,7 +7005,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C169" s="2" t="n">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C170" s="2" t="n">
@@ -7083,7 +7083,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C171" s="2" t="n">
@@ -7122,7 +7122,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C172" s="2" t="n">
@@ -7161,7 +7161,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C173" s="2" t="n">
@@ -7200,7 +7200,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C174" s="2" t="n">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C175" s="2" t="n">
@@ -7278,7 +7278,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C176" s="2" t="n">
@@ -7317,7 +7317,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C177" s="2" t="n">
@@ -7356,7 +7356,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C178" s="2" t="n">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C179" s="2" t="n">
@@ -7434,7 +7434,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C180" s="2" t="n">
@@ -7473,7 +7473,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C181" s="2" t="n">
@@ -7512,7 +7512,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C182" s="2" t="n">
@@ -7551,7 +7551,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C183" s="2" t="n">
@@ -7590,7 +7590,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C184" s="2" t="n">
@@ -7629,7 +7629,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C185" s="2" t="n">
@@ -7668,7 +7668,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C186" s="2" t="n">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C187" s="2" t="n">
@@ -7746,7 +7746,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C188" s="2" t="n">
@@ -7785,7 +7785,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C189" s="2" t="n">
@@ -7824,7 +7824,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C190" s="2" t="n">
@@ -7863,7 +7863,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C191" s="2" t="n">
@@ -7902,7 +7902,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C192" s="2" t="n">
@@ -7941,7 +7941,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C193" s="2" t="n">
@@ -7980,7 +7980,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C194" s="2" t="n">
@@ -8019,7 +8019,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C195" s="2" t="n">
@@ -8058,7 +8058,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C196" s="2" t="n">
@@ -8097,7 +8097,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C197" s="2" t="n">
@@ -8136,7 +8136,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C198" s="2" t="n">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C199" s="2" t="n">
@@ -8214,7 +8214,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C200" s="2" t="n">
@@ -8253,7 +8253,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C201" s="2" t="n">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C202" s="2" t="n">
@@ -8331,7 +8331,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C203" s="2" t="n">
@@ -8370,7 +8370,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C204" s="2" t="n">
@@ -8409,7 +8409,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C205" s="2" t="n">
@@ -8448,7 +8448,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C206" s="2" t="n">
@@ -8487,7 +8487,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C207" s="2" t="n">
@@ -8526,7 +8526,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C208" s="2" t="n">
@@ -8565,7 +8565,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C209" s="2" t="n">
@@ -8604,7 +8604,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C210" s="2" t="n">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C211" s="2" t="n">
@@ -8682,7 +8682,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C212" s="2" t="n">
@@ -8721,7 +8721,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C213" s="2" t="n">
@@ -8760,7 +8760,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C214" s="2" t="n">
@@ -8799,7 +8799,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C215" s="2" t="n">
@@ -8838,7 +8838,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C216" s="2" t="n">
@@ -8877,7 +8877,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C217" s="2" t="n">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C218" s="2" t="n">
@@ -8955,7 +8955,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C219" s="2" t="n">
@@ -8994,7 +8994,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C220" s="2" t="n">
@@ -9033,7 +9033,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C221" s="2" t="n">
@@ -9072,7 +9072,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C222" s="2" t="n">
@@ -9111,7 +9111,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C223" s="2" t="n">
@@ -9150,7 +9150,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C224" s="2" t="n">
@@ -9189,7 +9189,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C225" s="2" t="n">
@@ -9228,7 +9228,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C226" s="2" t="n">
@@ -9267,7 +9267,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C227" s="2" t="n">
@@ -9306,7 +9306,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C228" s="2" t="n">
@@ -9345,7 +9345,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C229" s="2" t="n">
@@ -9384,7 +9384,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C230" s="2" t="n">
@@ -9423,7 +9423,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C231" s="2" t="n">
@@ -9462,7 +9462,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C232" s="2" t="n">
@@ -9501,7 +9501,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C233" s="2" t="n">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C234" s="2" t="n">
@@ -9579,7 +9579,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C235" s="2" t="n">
@@ -9618,7 +9618,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C236" s="2" t="n">
@@ -9657,7 +9657,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C237" s="2" t="n">
@@ -9696,7 +9696,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C238" s="2" t="n">
@@ -9735,7 +9735,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C239" s="2" t="n">
@@ -9774,7 +9774,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C240" s="2" t="n">
@@ -9813,7 +9813,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C241" s="2" t="n">
@@ -9852,7 +9852,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C242" s="2" t="n">
@@ -9891,7 +9891,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C243" s="2" t="n">
@@ -9930,7 +9930,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C244" s="2" t="n">
@@ -9969,7 +9969,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C245" s="2" t="n">
@@ -10008,7 +10008,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C246" s="2" t="n">
@@ -10047,7 +10047,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C247" s="2" t="n">
@@ -10086,7 +10086,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C248" s="2" t="n">
@@ -10125,7 +10125,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C249" s="2" t="n">
@@ -10164,7 +10164,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C250" s="2" t="n">
@@ -10203,7 +10203,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C251" s="2" t="n">
@@ -10242,7 +10242,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C252" s="2" t="n">
@@ -10281,7 +10281,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C253" s="2" t="n">
@@ -10320,7 +10320,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C254" s="2" t="n">
@@ -10359,7 +10359,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C255" s="2" t="n">
@@ -10398,7 +10398,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C256" s="2" t="n">
@@ -10437,7 +10437,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C257" s="2" t="n">
@@ -10476,7 +10476,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C258" s="2" t="n">
@@ -10515,7 +10515,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C259" s="2" t="n">
@@ -10554,7 +10554,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C260" s="2" t="n">
@@ -10593,7 +10593,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C261" s="2" t="n">
@@ -10632,7 +10632,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C262" s="2" t="n">
@@ -10671,7 +10671,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C263" s="2" t="n">
@@ -10710,7 +10710,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C264" s="2" t="n">
@@ -10749,7 +10749,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C265" s="2" t="n">
@@ -10788,7 +10788,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C266" s="2" t="n">
@@ -10827,7 +10827,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C267" s="2" t="n">
@@ -10866,7 +10866,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C268" s="2" t="n">
@@ -10905,7 +10905,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C269" s="2" t="n">
@@ -10944,7 +10944,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C270" s="2" t="n">
@@ -10983,7 +10983,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C271" s="2" t="n">
@@ -11022,7 +11022,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C272" s="2" t="n">
@@ -11061,7 +11061,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C273" s="2" t="n">
@@ -11100,7 +11100,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C274" s="2" t="n">
@@ -11139,7 +11139,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C275" s="2" t="n">
@@ -11178,7 +11178,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C276" s="2" t="n">
@@ -11217,7 +11217,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C277" s="2" t="n">
@@ -11256,7 +11256,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C278" s="2" t="n">
@@ -11295,7 +11295,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C279" s="2" t="n">
@@ -11334,7 +11334,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C280" s="2" t="n">
@@ -11373,7 +11373,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C281" s="2" t="n">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C282" s="2" t="n">
@@ -11451,7 +11451,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C283" s="2" t="n">
@@ -11490,7 +11490,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C284" s="2" t="n">
@@ -11529,7 +11529,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C285" s="2" t="n">
@@ -11568,7 +11568,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C286" s="2" t="n">
@@ -11607,7 +11607,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C287" s="2" t="n">
@@ -11646,7 +11646,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C288" s="2" t="n">
@@ -11685,7 +11685,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C289" s="2" t="n">
@@ -11724,7 +11724,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C290" s="2" t="n">
@@ -11763,7 +11763,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C291" s="2" t="n">
@@ -11802,7 +11802,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C292" s="2" t="n">
@@ -11841,7 +11841,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C293" s="2" t="n">
@@ -11880,7 +11880,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C294" s="2" t="n">
@@ -11919,7 +11919,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C295" s="2" t="n">
@@ -11958,7 +11958,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C296" s="2" t="n">
@@ -11997,7 +11997,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C297" s="2" t="n">

--- a/data/Contact_Recreation/WhanganuiatTownBridge_de9755c7bd.xlsx
+++ b/data/Contact_Recreation/WhanganuiatTownBridge_de9755c7bd.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="223">
   <si>
     <t>site name</t>
   </si>
@@ -49,574 +49,613 @@
     <t>E. coli</t>
   </si>
   <si>
-    <t>580</t>
-  </si>
-  <si>
-    <t>3100</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>4400</t>
-  </si>
-  <si>
-    <t>390</t>
-  </si>
-  <si>
-    <t>920</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>3700</t>
-  </si>
-  <si>
-    <t>2400</t>
-  </si>
-  <si>
-    <t>520</t>
-  </si>
-  <si>
-    <t>1400</t>
-  </si>
-  <si>
-    <t>1700</t>
-  </si>
-  <si>
-    <t>3500</t>
-  </si>
-  <si>
-    <t>740</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>960</t>
-  </si>
-  <si>
-    <t>480</t>
-  </si>
-  <si>
-    <t>280</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>320</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>560</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>780</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>450</t>
-  </si>
-  <si>
-    <t>420</t>
-  </si>
-  <si>
-    <t>270</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>840</t>
-  </si>
-  <si>
-    <t>1200</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>590</t>
-  </si>
-  <si>
-    <t>670</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>510</t>
-  </si>
-  <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>3300</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>&gt;9700</t>
-  </si>
-  <si>
-    <t>1500</t>
-  </si>
-  <si>
-    <t>1800</t>
-  </si>
-  <si>
-    <t>570</t>
-  </si>
-  <si>
-    <t>800</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>1600</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>410</t>
-  </si>
-  <si>
-    <t>470</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>380</t>
-  </si>
-  <si>
-    <t>290</t>
-  </si>
-  <si>
-    <t>640</t>
-  </si>
-  <si>
-    <t>6200</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>4500</t>
-  </si>
-  <si>
-    <t>340</t>
-  </si>
-  <si>
-    <t>870</t>
-  </si>
-  <si>
-    <t>7900</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>2900</t>
-  </si>
-  <si>
-    <t>1100</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>360</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>820</t>
-  </si>
-  <si>
-    <t>379</t>
-  </si>
-  <si>
-    <t>435</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>223</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>471</t>
-  </si>
-  <si>
-    <t>733</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>1050</t>
-  </si>
-  <si>
-    <t>4110</t>
-  </si>
-  <si>
-    <t>798</t>
-  </si>
-  <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>2910</t>
-  </si>
-  <si>
-    <t>404</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>355</t>
-  </si>
-  <si>
-    <t>393</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>228</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>249</t>
-  </si>
-  <si>
-    <t>368</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>243</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>554</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>441</t>
-  </si>
-  <si>
-    <t>1317</t>
-  </si>
-  <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>246</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>275</t>
-  </si>
-  <si>
-    <t>9210</t>
-  </si>
-  <si>
-    <t>2187</t>
-  </si>
-  <si>
-    <t>2760</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>794</t>
-  </si>
-  <si>
-    <t>233</t>
-  </si>
-  <si>
-    <t>512</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>279</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>6130</t>
-  </si>
-  <si>
-    <t>495</t>
-  </si>
-  <si>
-    <t>1172</t>
-  </si>
-  <si>
-    <t>1354</t>
-  </si>
-  <si>
-    <t>487</t>
-  </si>
-  <si>
-    <t>331</t>
-  </si>
-  <si>
-    <t>1670</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>1565</t>
-  </si>
-  <si>
-    <t>285</t>
-  </si>
-  <si>
-    <t>298</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>5250</t>
-  </si>
-  <si>
-    <t>422</t>
-  </si>
-  <si>
-    <t>3260</t>
-  </si>
-  <si>
-    <t>4610</t>
-  </si>
-  <si>
-    <t>1421</t>
-  </si>
-  <si>
-    <t>697</t>
-  </si>
-  <si>
-    <t>9800</t>
-  </si>
-  <si>
-    <t>771</t>
-  </si>
-  <si>
-    <t>1291</t>
-  </si>
-  <si>
-    <t>4350</t>
-  </si>
-  <si>
-    <t>364</t>
-  </si>
-  <si>
-    <t>857</t>
-  </si>
-  <si>
-    <t>1296</t>
-  </si>
-  <si>
-    <t>842</t>
-  </si>
-  <si>
-    <t>1333</t>
-  </si>
-  <si>
-    <t>272</t>
-  </si>
-  <si>
-    <t>426</t>
-  </si>
-  <si>
-    <t>439</t>
-  </si>
-  <si>
-    <t>982</t>
-  </si>
-  <si>
-    <t>1281</t>
-  </si>
-  <si>
-    <t>464</t>
-  </si>
-  <si>
-    <t>241</t>
-  </si>
-  <si>
-    <t>620</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>259</t>
-  </si>
-  <si>
-    <t>373</t>
-  </si>
-  <si>
-    <t>384</t>
-  </si>
-  <si>
-    <t>855</t>
-  </si>
-  <si>
-    <t>3080</t>
+    <t>580.0</t>
+  </si>
+  <si>
+    <t>3100.0</t>
+  </si>
+  <si>
+    <t>170.0</t>
+  </si>
+  <si>
+    <t>88.0</t>
+  </si>
+  <si>
+    <t>4400.0</t>
+  </si>
+  <si>
+    <t>390.0</t>
+  </si>
+  <si>
+    <t>920.0</t>
+  </si>
+  <si>
+    <t>180.0</t>
+  </si>
+  <si>
+    <t>3700.0</t>
+  </si>
+  <si>
+    <t>2400.0</t>
+  </si>
+  <si>
+    <t>520.0</t>
+  </si>
+  <si>
+    <t>1400.0</t>
+  </si>
+  <si>
+    <t>1700.0</t>
+  </si>
+  <si>
+    <t>3500.0</t>
+  </si>
+  <si>
+    <t>740.0</t>
+  </si>
+  <si>
+    <t>140.0</t>
+  </si>
+  <si>
+    <t>960.0</t>
+  </si>
+  <si>
+    <t>480.0</t>
+  </si>
+  <si>
+    <t>280.0</t>
+  </si>
+  <si>
+    <t>350.0</t>
+  </si>
+  <si>
+    <t>320.0</t>
+  </si>
+  <si>
+    <t>66.0</t>
+  </si>
+  <si>
+    <t>39.0</t>
+  </si>
+  <si>
+    <t>240.0</t>
+  </si>
+  <si>
+    <t>560.0</t>
+  </si>
+  <si>
+    <t>130.0</t>
+  </si>
+  <si>
+    <t>230.0</t>
+  </si>
+  <si>
+    <t>780.0</t>
+  </si>
+  <si>
+    <t>97.0</t>
+  </si>
+  <si>
+    <t>120.0</t>
+  </si>
+  <si>
+    <t>450.0</t>
+  </si>
+  <si>
+    <t>420.0</t>
+  </si>
+  <si>
+    <t>270.0</t>
+  </si>
+  <si>
+    <t>150.0</t>
+  </si>
+  <si>
+    <t>58.0</t>
+  </si>
+  <si>
+    <t>89.0</t>
+  </si>
+  <si>
+    <t>840.0</t>
+  </si>
+  <si>
+    <t>1200.0</t>
+  </si>
+  <si>
+    <t>68.0</t>
+  </si>
+  <si>
+    <t>590.0</t>
+  </si>
+  <si>
+    <t>670.0</t>
+  </si>
+  <si>
+    <t>69.0</t>
+  </si>
+  <si>
+    <t>200.0</t>
+  </si>
+  <si>
+    <t>220.0</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>48.0</t>
+  </si>
+  <si>
+    <t>510.0</t>
+  </si>
+  <si>
+    <t>310.0</t>
+  </si>
+  <si>
+    <t>110.0</t>
+  </si>
+  <si>
+    <t>3300.0</t>
+  </si>
+  <si>
+    <t>80.0</t>
+  </si>
+  <si>
+    <t>64.0</t>
+  </si>
+  <si>
+    <t>&gt;9700.0</t>
+  </si>
+  <si>
+    <t>1500.0</t>
+  </si>
+  <si>
+    <t>1800.0</t>
+  </si>
+  <si>
+    <t>570.0</t>
+  </si>
+  <si>
+    <t>800.0</t>
+  </si>
+  <si>
+    <t>34.0</t>
+  </si>
+  <si>
+    <t>1600.0</t>
+  </si>
+  <si>
+    <t>190.0</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>87.0</t>
+  </si>
+  <si>
+    <t>250.0</t>
+  </si>
+  <si>
+    <t>410.0</t>
+  </si>
+  <si>
+    <t>470.0</t>
+  </si>
+  <si>
+    <t>330.0</t>
+  </si>
+  <si>
+    <t>600.0</t>
+  </si>
+  <si>
+    <t>380.0</t>
+  </si>
+  <si>
+    <t>290.0</t>
+  </si>
+  <si>
+    <t>640.0</t>
+  </si>
+  <si>
+    <t>6200.0</t>
+  </si>
+  <si>
+    <t>1000.0</t>
+  </si>
+  <si>
+    <t>74.0</t>
+  </si>
+  <si>
+    <t>81.0</t>
+  </si>
+  <si>
+    <t>91.0</t>
+  </si>
+  <si>
+    <t>4500.0</t>
+  </si>
+  <si>
+    <t>340.0</t>
+  </si>
+  <si>
+    <t>870.0</t>
+  </si>
+  <si>
+    <t>7900.0</t>
+  </si>
+  <si>
+    <t>93.0</t>
+  </si>
+  <si>
+    <t>86.0</t>
+  </si>
+  <si>
+    <t>2900.0</t>
+  </si>
+  <si>
+    <t>1100.0</t>
+  </si>
+  <si>
+    <t>54.0</t>
+  </si>
+  <si>
+    <t>49.0</t>
+  </si>
+  <si>
+    <t>73.0</t>
+  </si>
+  <si>
+    <t>98.0</t>
+  </si>
+  <si>
+    <t>360.0</t>
+  </si>
+  <si>
+    <t>85.0</t>
+  </si>
+  <si>
+    <t>76.0</t>
+  </si>
+  <si>
+    <t>36.0</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>820.0</t>
+  </si>
+  <si>
+    <t>379.0</t>
+  </si>
+  <si>
+    <t>435.0</t>
+  </si>
+  <si>
+    <t>42.0</t>
+  </si>
+  <si>
+    <t>84.0</t>
+  </si>
+  <si>
+    <t>134.0</t>
+  </si>
+  <si>
+    <t>198.0</t>
+  </si>
+  <si>
+    <t>223.0</t>
+  </si>
+  <si>
+    <t>52.0</t>
+  </si>
+  <si>
+    <t>109.0</t>
+  </si>
+  <si>
+    <t>471.0</t>
+  </si>
+  <si>
+    <t>733.0</t>
+  </si>
+  <si>
+    <t>183.0</t>
+  </si>
+  <si>
+    <t>1050.0</t>
+  </si>
+  <si>
+    <t>4110.0</t>
+  </si>
+  <si>
+    <t>798.0</t>
+  </si>
+  <si>
+    <t>262.0</t>
+  </si>
+  <si>
+    <t>145.0</t>
+  </si>
+  <si>
+    <t>132.0</t>
+  </si>
+  <si>
+    <t>63.0</t>
+  </si>
+  <si>
+    <t>2910.0</t>
+  </si>
+  <si>
+    <t>404.0</t>
+  </si>
+  <si>
+    <t>216.0</t>
+  </si>
+  <si>
+    <t>355.0</t>
+  </si>
+  <si>
+    <t>393.0</t>
+  </si>
+  <si>
+    <t>203.0</t>
+  </si>
+  <si>
+    <t>228.0</t>
+  </si>
+  <si>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>41.0</t>
+  </si>
+  <si>
+    <t>121.0</t>
+  </si>
+  <si>
+    <t>249.0</t>
+  </si>
+  <si>
+    <t>368.0</t>
+  </si>
+  <si>
+    <t>158.0</t>
+  </si>
+  <si>
+    <t>243.0</t>
+  </si>
+  <si>
+    <t>189.0</t>
+  </si>
+  <si>
+    <t>554.0</t>
+  </si>
+  <si>
+    <t>169.0</t>
+  </si>
+  <si>
+    <t>441.0</t>
+  </si>
+  <si>
+    <t>1317.0</t>
+  </si>
+  <si>
+    <t>213.0</t>
+  </si>
+  <si>
+    <t>246.0</t>
+  </si>
+  <si>
+    <t>156.0</t>
+  </si>
+  <si>
+    <t>275.0</t>
+  </si>
+  <si>
+    <t>9210.0</t>
+  </si>
+  <si>
+    <t>2187.0</t>
+  </si>
+  <si>
+    <t>2760.0</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>122.0</t>
+  </si>
+  <si>
+    <t>144.0</t>
+  </si>
+  <si>
+    <t>173.0</t>
+  </si>
+  <si>
+    <t>794.0</t>
+  </si>
+  <si>
+    <t>233.0</t>
+  </si>
+  <si>
+    <t>512.0</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>279.0</t>
+  </si>
+  <si>
+    <t>171.0</t>
+  </si>
+  <si>
+    <t>135.0</t>
+  </si>
+  <si>
+    <t>6130.0</t>
+  </si>
+  <si>
+    <t>495.0</t>
+  </si>
+  <si>
+    <t>1172.0</t>
+  </si>
+  <si>
+    <t>1354.0</t>
+  </si>
+  <si>
+    <t>487.0</t>
+  </si>
+  <si>
+    <t>331.0</t>
+  </si>
+  <si>
+    <t>1670.0</t>
+  </si>
+  <si>
+    <t>201.0</t>
+  </si>
+  <si>
+    <t>1565.0</t>
+  </si>
+  <si>
+    <t>285.0</t>
+  </si>
+  <si>
+    <t>298.0</t>
+  </si>
+  <si>
+    <t>187.0</t>
+  </si>
+  <si>
+    <t>5250.0</t>
+  </si>
+  <si>
+    <t>422.0</t>
+  </si>
+  <si>
+    <t>3260.0</t>
+  </si>
+  <si>
+    <t>4610.0</t>
+  </si>
+  <si>
+    <t>1421.0</t>
+  </si>
+  <si>
+    <t>697.0</t>
+  </si>
+  <si>
+    <t>9800.0</t>
+  </si>
+  <si>
+    <t>771.0</t>
+  </si>
+  <si>
+    <t>1291.0</t>
+  </si>
+  <si>
+    <t>4350.0</t>
+  </si>
+  <si>
+    <t>364.0</t>
+  </si>
+  <si>
+    <t>857.0</t>
+  </si>
+  <si>
+    <t>1296.0</t>
+  </si>
+  <si>
+    <t>842.0</t>
+  </si>
+  <si>
+    <t>1333.0</t>
+  </si>
+  <si>
+    <t>272.0</t>
+  </si>
+  <si>
+    <t>426.0</t>
+  </si>
+  <si>
+    <t>439.0</t>
+  </si>
+  <si>
+    <t>982.0</t>
+  </si>
+  <si>
+    <t>1281.0</t>
+  </si>
+  <si>
+    <t>464.0</t>
+  </si>
+  <si>
+    <t>241.0</t>
+  </si>
+  <si>
+    <t>620.0</t>
+  </si>
+  <si>
+    <t>231.0</t>
+  </si>
+  <si>
+    <t>259.0</t>
+  </si>
+  <si>
+    <t>373.0</t>
+  </si>
+  <si>
+    <t>384.0</t>
+  </si>
+  <si>
+    <t>855.0</t>
+  </si>
+  <si>
+    <t>3080.0</t>
+  </si>
+  <si>
+    <t>313.0</t>
+  </si>
+  <si>
+    <t>290.9</t>
+  </si>
+  <si>
+    <t>1515.0</t>
+  </si>
+  <si>
+    <t>185.0</t>
+  </si>
+  <si>
+    <t>128.0</t>
+  </si>
+  <si>
+    <t>269.0</t>
+  </si>
+  <si>
+    <t>108.0</t>
+  </si>
+  <si>
+    <t>336.0</t>
+  </si>
+  <si>
+    <t>83.0</t>
+  </si>
+  <si>
+    <t>96.0</t>
+  </si>
+  <si>
+    <t>&gt;24196.0</t>
+  </si>
+  <si>
+    <t>17329.0</t>
+  </si>
+  <si>
+    <t>1012.0</t>
   </si>
   <si>
     <t>Science - Contact Recreation</t>
@@ -638,6 +677,9 @@
   </si>
   <si>
     <t>APHA 23rd Ed. 9223 B</t>
+  </si>
+  <si>
+    <t>SMEWW 9223B</t>
   </si>
   <si>
     <t>MPN/100mL</t>
@@ -1002,7 +1044,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I322"/>
+  <dimension ref="A1:I347"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1051,13 +1093,13 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F2" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="G2" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H2">
         <v>600</v>
@@ -1077,13 +1119,13 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F3" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="G3" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H3">
         <v>600</v>
@@ -1103,13 +1145,13 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F4" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="G4" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H4">
         <v>600</v>
@@ -1129,13 +1171,13 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F5" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="G5" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H5">
         <v>600</v>
@@ -1155,13 +1197,13 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F6" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="G6" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H6">
         <v>600</v>
@@ -1181,13 +1223,13 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F7" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="G7" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H7">
         <v>600</v>
@@ -1207,13 +1249,13 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F8" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="G8" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H8">
         <v>600</v>
@@ -1233,13 +1275,13 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F9" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="G9" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H9">
         <v>600</v>
@@ -1259,13 +1301,13 @@
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F10" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="G10" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H10">
         <v>600</v>
@@ -1285,13 +1327,13 @@
         <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F11" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="G11" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H11">
         <v>600</v>
@@ -1311,13 +1353,13 @@
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F12" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="G12" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H12">
         <v>600</v>
@@ -1337,13 +1379,13 @@
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F13" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="G13" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H13">
         <v>600</v>
@@ -1363,13 +1405,13 @@
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F14" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="G14" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H14">
         <v>600</v>
@@ -1389,13 +1431,13 @@
         <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F15" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="G15" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H15">
         <v>600</v>
@@ -1415,13 +1457,13 @@
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F16" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="G16" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H16">
         <v>600</v>
@@ -1441,13 +1483,13 @@
         <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F17" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="G17" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H17">
         <v>600</v>
@@ -1467,13 +1509,13 @@
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F18" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="G18" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H18">
         <v>600</v>
@@ -1493,13 +1535,13 @@
         <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F19" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="G19" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H19">
         <v>600</v>
@@ -1519,13 +1561,13 @@
         <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F20" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="G20" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H20">
         <v>600</v>
@@ -1545,13 +1587,13 @@
         <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F21" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="G21" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H21">
         <v>600</v>
@@ -1571,13 +1613,13 @@
         <v>29</v>
       </c>
       <c r="E22" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F22" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="G22" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H22">
         <v>600</v>
@@ -1597,13 +1639,13 @@
         <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F23" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="G23" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H23">
         <v>600</v>
@@ -1623,13 +1665,13 @@
         <v>31</v>
       </c>
       <c r="E24" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F24" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="G24" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H24">
         <v>600</v>
@@ -1649,13 +1691,13 @@
         <v>32</v>
       </c>
       <c r="E25" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F25" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="G25" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H25">
         <v>600</v>
@@ -1675,13 +1717,13 @@
         <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F26" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G26" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H26">
         <v>600</v>
@@ -1701,13 +1743,13 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F27" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G27" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H27">
         <v>600</v>
@@ -1727,13 +1769,13 @@
         <v>34</v>
       </c>
       <c r="E28" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F28" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G28" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H28">
         <v>600</v>
@@ -1753,13 +1795,13 @@
         <v>35</v>
       </c>
       <c r="E29" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F29" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G29" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H29">
         <v>600</v>
@@ -1779,13 +1821,13 @@
         <v>36</v>
       </c>
       <c r="E30" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F30" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G30" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H30">
         <v>600</v>
@@ -1805,13 +1847,13 @@
         <v>37</v>
       </c>
       <c r="E31" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F31" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G31" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H31">
         <v>600</v>
@@ -1831,13 +1873,13 @@
         <v>38</v>
       </c>
       <c r="E32" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F32" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G32" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H32">
         <v>600</v>
@@ -1857,13 +1899,13 @@
         <v>25</v>
       </c>
       <c r="E33" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F33" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G33" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H33">
         <v>600</v>
@@ -1883,13 +1925,13 @@
         <v>39</v>
       </c>
       <c r="E34" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F34" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G34" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H34">
         <v>600</v>
@@ -1909,13 +1951,13 @@
         <v>40</v>
       </c>
       <c r="E35" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F35" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G35" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H35">
         <v>600</v>
@@ -1935,13 +1977,13 @@
         <v>41</v>
       </c>
       <c r="E36" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F36" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G36" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H36">
         <v>600</v>
@@ -1961,13 +2003,13 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F37" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G37" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H37">
         <v>600</v>
@@ -1987,13 +2029,13 @@
         <v>25</v>
       </c>
       <c r="E38" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F38" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G38" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H38">
         <v>600</v>
@@ -2013,13 +2055,13 @@
         <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F39" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G39" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H39">
         <v>600</v>
@@ -2039,13 +2081,13 @@
         <v>43</v>
       </c>
       <c r="E40" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F40" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G40" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H40">
         <v>600</v>
@@ -2065,13 +2107,13 @@
         <v>36</v>
       </c>
       <c r="E41" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F41" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G41" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H41">
         <v>600</v>
@@ -2091,13 +2133,13 @@
         <v>44</v>
       </c>
       <c r="E42" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F42" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G42" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H42">
         <v>600</v>
@@ -2117,13 +2159,13 @@
         <v>45</v>
       </c>
       <c r="E43" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F43" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G43" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H43">
         <v>600</v>
@@ -2143,13 +2185,13 @@
         <v>46</v>
       </c>
       <c r="E44" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F44" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G44" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H44">
         <v>600</v>
@@ -2169,13 +2211,13 @@
         <v>47</v>
       </c>
       <c r="E45" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F45" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G45" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H45">
         <v>600</v>
@@ -2195,13 +2237,13 @@
         <v>48</v>
       </c>
       <c r="E46" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F46" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G46" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H46">
         <v>600</v>
@@ -2221,13 +2263,13 @@
         <v>49</v>
       </c>
       <c r="E47" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F47" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G47" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H47">
         <v>600</v>
@@ -2247,13 +2289,13 @@
         <v>50</v>
       </c>
       <c r="E48" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F48" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G48" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H48">
         <v>600</v>
@@ -2273,13 +2315,13 @@
         <v>51</v>
       </c>
       <c r="E49" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F49" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G49" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H49">
         <v>600</v>
@@ -2299,13 +2341,13 @@
         <v>44</v>
       </c>
       <c r="E50" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F50" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G50" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H50">
         <v>600</v>
@@ -2325,13 +2367,13 @@
         <v>13</v>
       </c>
       <c r="E51" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F51" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G51" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H51">
         <v>600</v>
@@ -2351,13 +2393,13 @@
         <v>52</v>
       </c>
       <c r="E52" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F52" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G52" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H52">
         <v>600</v>
@@ -2377,13 +2419,13 @@
         <v>53</v>
       </c>
       <c r="E53" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F53" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G53" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H53">
         <v>600</v>
@@ -2403,13 +2445,13 @@
         <v>33</v>
       </c>
       <c r="E54" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F54" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G54" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H54">
         <v>600</v>
@@ -2429,13 +2471,13 @@
         <v>44</v>
       </c>
       <c r="E55" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F55" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G55" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H55">
         <v>600</v>
@@ -2455,13 +2497,13 @@
         <v>54</v>
       </c>
       <c r="E56" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F56" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G56" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H56">
         <v>600</v>
@@ -2481,13 +2523,13 @@
         <v>13</v>
       </c>
       <c r="E57" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F57" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G57" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H57">
         <v>600</v>
@@ -2507,13 +2549,13 @@
         <v>55</v>
       </c>
       <c r="E58" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F58" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G58" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H58">
         <v>600</v>
@@ -2533,13 +2575,13 @@
         <v>56</v>
       </c>
       <c r="E59" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F59" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G59" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H59">
         <v>600</v>
@@ -2559,13 +2601,13 @@
         <v>57</v>
       </c>
       <c r="E60" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F60" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G60" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H60">
         <v>600</v>
@@ -2585,13 +2627,13 @@
         <v>58</v>
       </c>
       <c r="E61" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F61" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G61" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H61">
         <v>600</v>
@@ -2611,13 +2653,13 @@
         <v>45</v>
       </c>
       <c r="E62" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F62" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G62" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H62">
         <v>600</v>
@@ -2637,13 +2679,13 @@
         <v>59</v>
       </c>
       <c r="E63" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F63" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G63" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H63">
         <v>600</v>
@@ -2663,13 +2705,13 @@
         <v>44</v>
       </c>
       <c r="E64" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F64" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G64" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H64">
         <v>600</v>
@@ -2689,13 +2731,13 @@
         <v>13</v>
       </c>
       <c r="E65" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F65" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G65" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H65">
         <v>600</v>
@@ -2715,13 +2757,13 @@
         <v>53</v>
       </c>
       <c r="E66" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F66" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G66" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H66">
         <v>600</v>
@@ -2741,13 +2783,13 @@
         <v>36</v>
       </c>
       <c r="E67" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F67" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G67" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H67">
         <v>600</v>
@@ -2767,13 +2809,13 @@
         <v>29</v>
       </c>
       <c r="E68" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F68" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G68" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H68">
         <v>600</v>
@@ -2793,13 +2835,13 @@
         <v>60</v>
       </c>
       <c r="E69" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F69" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G69" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H69">
         <v>600</v>
@@ -2819,13 +2861,13 @@
         <v>61</v>
       </c>
       <c r="E70" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F70" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G70" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H70">
         <v>600</v>
@@ -2845,13 +2887,13 @@
         <v>26</v>
       </c>
       <c r="E71" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F71" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G71" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H71">
         <v>600</v>
@@ -2871,13 +2913,13 @@
         <v>62</v>
       </c>
       <c r="E72" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F72" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G72" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H72">
         <v>600</v>
@@ -2897,13 +2939,13 @@
         <v>63</v>
       </c>
       <c r="E73" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F73" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G73" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H73">
         <v>600</v>
@@ -2923,13 +2965,13 @@
         <v>25</v>
       </c>
       <c r="E74" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F74" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G74" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H74">
         <v>600</v>
@@ -2949,13 +2991,13 @@
         <v>42</v>
       </c>
       <c r="E75" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F75" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G75" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H75">
         <v>600</v>
@@ -2975,13 +3017,13 @@
         <v>64</v>
       </c>
       <c r="E76" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F76" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G76" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H76">
         <v>600</v>
@@ -3001,13 +3043,13 @@
         <v>65</v>
       </c>
       <c r="E77" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="F77" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G77" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H77">
         <v>600</v>
@@ -3027,13 +3069,13 @@
         <v>66</v>
       </c>
       <c r="E78" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F78" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G78" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H78">
         <v>600</v>
@@ -3053,13 +3095,13 @@
         <v>67</v>
       </c>
       <c r="E79" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F79" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G79" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H79">
         <v>600</v>
@@ -3079,13 +3121,13 @@
         <v>54</v>
       </c>
       <c r="E80" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F80" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G80" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H80">
         <v>600</v>
@@ -3105,13 +3147,13 @@
         <v>68</v>
       </c>
       <c r="E81" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="F81" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G81" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H81">
         <v>600</v>
@@ -3131,13 +3173,13 @@
         <v>69</v>
       </c>
       <c r="E82" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F82" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G82" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H82">
         <v>600</v>
@@ -3157,13 +3199,13 @@
         <v>63</v>
       </c>
       <c r="E83" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F83" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G83" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H83">
         <v>600</v>
@@ -3183,13 +3225,13 @@
         <v>70</v>
       </c>
       <c r="E84" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F84" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G84" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H84">
         <v>600</v>
@@ -3209,13 +3251,13 @@
         <v>71</v>
       </c>
       <c r="E85" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="F85" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G85" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H85">
         <v>600</v>
@@ -3235,13 +3277,13 @@
         <v>72</v>
       </c>
       <c r="E86" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F86" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G86" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H86">
         <v>600</v>
@@ -3261,13 +3303,13 @@
         <v>73</v>
       </c>
       <c r="E87" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F87" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G87" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H87">
         <v>600</v>
@@ -3287,13 +3329,13 @@
         <v>68</v>
       </c>
       <c r="E88" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F88" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G88" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H88">
         <v>600</v>
@@ -3313,13 +3355,13 @@
         <v>21</v>
       </c>
       <c r="E89" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F89" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G89" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H89">
         <v>600</v>
@@ -3339,13 +3381,13 @@
         <v>44</v>
       </c>
       <c r="E90" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="F90" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G90" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H90">
         <v>600</v>
@@ -3365,13 +3407,13 @@
         <v>74</v>
       </c>
       <c r="E91" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F91" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G91" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H91">
         <v>600</v>
@@ -3391,13 +3433,13 @@
         <v>36</v>
       </c>
       <c r="E92" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F92" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G92" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H92">
         <v>600</v>
@@ -3417,13 +3459,13 @@
         <v>75</v>
       </c>
       <c r="E93" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="F93" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G93" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H93">
         <v>600</v>
@@ -3443,13 +3485,13 @@
         <v>76</v>
       </c>
       <c r="E94" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F94" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G94" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H94">
         <v>600</v>
@@ -3469,13 +3511,13 @@
         <v>77</v>
       </c>
       <c r="E95" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F95" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G95" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H95">
         <v>600</v>
@@ -3495,13 +3537,13 @@
         <v>26</v>
       </c>
       <c r="E96" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F96" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G96" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H96">
         <v>600</v>
@@ -3521,13 +3563,13 @@
         <v>78</v>
       </c>
       <c r="E97" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F97" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G97" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H97">
         <v>600</v>
@@ -3547,13 +3589,13 @@
         <v>79</v>
       </c>
       <c r="E98" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="F98" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G98" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H98">
         <v>600</v>
@@ -3573,13 +3615,13 @@
         <v>22</v>
       </c>
       <c r="E99" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F99" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G99" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H99">
         <v>600</v>
@@ -3599,13 +3641,13 @@
         <v>80</v>
       </c>
       <c r="E100" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F100" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G100" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H100">
         <v>600</v>
@@ -3625,13 +3667,13 @@
         <v>81</v>
       </c>
       <c r="E101" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F101" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G101" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H101">
         <v>600</v>
@@ -3651,13 +3693,13 @@
         <v>82</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F102" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G102" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H102">
         <v>600</v>
@@ -3677,13 +3719,13 @@
         <v>36</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G103" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H103">
         <v>600</v>
@@ -3703,13 +3745,13 @@
         <v>29</v>
       </c>
       <c r="E104" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G104" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H104">
         <v>600</v>
@@ -3729,13 +3771,13 @@
         <v>83</v>
       </c>
       <c r="E105" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F105" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G105" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H105">
         <v>600</v>
@@ -3755,13 +3797,13 @@
         <v>84</v>
       </c>
       <c r="E106" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F106" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G106" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H106">
         <v>600</v>
@@ -3781,13 +3823,13 @@
         <v>85</v>
       </c>
       <c r="E107" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F107" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G107" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H107">
         <v>600</v>
@@ -3807,13 +3849,13 @@
         <v>86</v>
       </c>
       <c r="E108" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F108" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G108" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H108">
         <v>600</v>
@@ -3833,13 +3875,13 @@
         <v>44</v>
       </c>
       <c r="E109" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="F109" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G109" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H109">
         <v>600</v>
@@ -3859,13 +3901,13 @@
         <v>43</v>
       </c>
       <c r="E110" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F110" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G110" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H110">
         <v>600</v>
@@ -3885,13 +3927,13 @@
         <v>48</v>
       </c>
       <c r="E111" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F111" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G111" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H111">
         <v>600</v>
@@ -3911,13 +3953,13 @@
         <v>53</v>
       </c>
       <c r="E112" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F112" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G112" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H112">
         <v>600</v>
@@ -3937,13 +3979,13 @@
         <v>53</v>
       </c>
       <c r="E113" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="F113" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G113" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H113">
         <v>600</v>
@@ -3963,13 +4005,13 @@
         <v>87</v>
       </c>
       <c r="E114" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F114" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G114" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H114">
         <v>600</v>
@@ -3989,13 +4031,13 @@
         <v>21</v>
       </c>
       <c r="E115" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F115" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G115" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H115">
         <v>600</v>
@@ -4015,13 +4057,13 @@
         <v>88</v>
       </c>
       <c r="E116" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F116" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G116" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H116">
         <v>600</v>
@@ -4041,13 +4083,13 @@
         <v>72</v>
       </c>
       <c r="E117" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="F117" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G117" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H117">
         <v>600</v>
@@ -4067,13 +4109,13 @@
         <v>89</v>
       </c>
       <c r="E118" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F118" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G118" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H118">
         <v>600</v>
@@ -4093,13 +4135,13 @@
         <v>67</v>
       </c>
       <c r="E119" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F119" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G119" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H119">
         <v>600</v>
@@ -4119,13 +4161,13 @@
         <v>21</v>
       </c>
       <c r="E120" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F120" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G120" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H120">
         <v>600</v>
@@ -4145,13 +4187,13 @@
         <v>41</v>
       </c>
       <c r="E121" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F121" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G121" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H121">
         <v>600</v>
@@ -4171,13 +4213,13 @@
         <v>90</v>
       </c>
       <c r="E122" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F122" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G122" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H122">
         <v>600</v>
@@ -4197,13 +4239,13 @@
         <v>91</v>
       </c>
       <c r="E123" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F123" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G123" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H123">
         <v>600</v>
@@ -4223,13 +4265,13 @@
         <v>54</v>
       </c>
       <c r="E124" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="F124" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G124" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H124">
         <v>600</v>
@@ -4249,13 +4291,13 @@
         <v>61</v>
       </c>
       <c r="E125" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F125" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G125" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H125">
         <v>600</v>
@@ -4275,13 +4317,13 @@
         <v>92</v>
       </c>
       <c r="E126" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F126" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="G126" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H126">
         <v>600</v>
@@ -4301,13 +4343,13 @@
         <v>93</v>
       </c>
       <c r="E127" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F127" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="G127" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H127">
         <v>600</v>
@@ -4327,13 +4369,13 @@
         <v>35</v>
       </c>
       <c r="E128" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F128" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="G128" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H128">
         <v>600</v>
@@ -4353,13 +4395,13 @@
         <v>29</v>
       </c>
       <c r="E129" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F129" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="G129" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H129">
         <v>600</v>
@@ -4379,13 +4421,13 @@
         <v>66</v>
       </c>
       <c r="E130" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F130" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="G130" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H130">
         <v>600</v>
@@ -4405,13 +4447,13 @@
         <v>94</v>
       </c>
       <c r="E131" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F131" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="G131" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H131">
         <v>600</v>
@@ -4431,13 +4473,13 @@
         <v>26</v>
       </c>
       <c r="E132" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F132" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="G132" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H132">
         <v>600</v>
@@ -4457,13 +4499,13 @@
         <v>95</v>
       </c>
       <c r="E133" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F133" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="G133" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H133">
         <v>600</v>
@@ -4483,13 +4525,13 @@
         <v>95</v>
       </c>
       <c r="E134" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F134" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="G134" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H134">
         <v>600</v>
@@ -4509,13 +4551,13 @@
         <v>96</v>
       </c>
       <c r="E135" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F135" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="G135" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H135">
         <v>600</v>
@@ -4535,13 +4577,13 @@
         <v>97</v>
       </c>
       <c r="E136" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F136" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="G136" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H136">
         <v>600</v>
@@ -4561,13 +4603,13 @@
         <v>94</v>
       </c>
       <c r="E137" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="F137" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="G137" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H137">
         <v>600</v>
@@ -4587,13 +4629,13 @@
         <v>77</v>
       </c>
       <c r="E138" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F138" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="G138" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H138">
         <v>600</v>
@@ -4613,13 +4655,13 @@
         <v>98</v>
       </c>
       <c r="E139" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="F139" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="G139" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H139">
         <v>600</v>
@@ -4639,13 +4681,13 @@
         <v>99</v>
       </c>
       <c r="E140" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F140" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="G140" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H140">
         <v>600</v>
@@ -4665,13 +4707,13 @@
         <v>100</v>
       </c>
       <c r="E141" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F141" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="G141" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H141">
         <v>600</v>
@@ -4691,13 +4733,13 @@
         <v>64</v>
       </c>
       <c r="E142" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F142" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="G142" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H142">
         <v>600</v>
@@ -4717,13 +4759,13 @@
         <v>101</v>
       </c>
       <c r="E143" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F143" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="G143" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H143">
         <v>600</v>
@@ -4743,13 +4785,13 @@
         <v>69</v>
       </c>
       <c r="E144" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="F144" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="G144" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H144">
         <v>600</v>
@@ -4769,13 +4811,13 @@
         <v>25</v>
       </c>
       <c r="E145" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F145" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="G145" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H145">
         <v>600</v>
@@ -4795,13 +4837,13 @@
         <v>102</v>
       </c>
       <c r="E146" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="F146" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="G146" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H146">
         <v>600</v>
@@ -4821,13 +4863,13 @@
         <v>54</v>
       </c>
       <c r="E147" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F147" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="G147" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H147">
         <v>600</v>
@@ -4847,13 +4889,13 @@
         <v>103</v>
       </c>
       <c r="E148" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="F148" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="G148" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H148">
         <v>600</v>
@@ -4873,13 +4915,13 @@
         <v>94</v>
       </c>
       <c r="E149" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F149" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="G149" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H149">
         <v>600</v>
@@ -4899,13 +4941,13 @@
         <v>104</v>
       </c>
       <c r="E150" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F150" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G150" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H150">
         <v>600</v>
@@ -4925,13 +4967,13 @@
         <v>105</v>
       </c>
       <c r="E151" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F151" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G151" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H151">
         <v>600</v>
@@ -4951,13 +4993,13 @@
         <v>106</v>
       </c>
       <c r="E152" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F152" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G152" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H152">
         <v>600</v>
@@ -4977,13 +5019,13 @@
         <v>107</v>
       </c>
       <c r="E153" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F153" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G153" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H153">
         <v>600</v>
@@ -5003,13 +5045,13 @@
         <v>108</v>
       </c>
       <c r="E154" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F154" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G154" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H154">
         <v>600</v>
@@ -5029,13 +5071,13 @@
         <v>109</v>
       </c>
       <c r="E155" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F155" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G155" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H155">
         <v>600</v>
@@ -5055,13 +5097,13 @@
         <v>110</v>
       </c>
       <c r="E156" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F156" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G156" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H156">
         <v>600</v>
@@ -5081,13 +5123,13 @@
         <v>111</v>
       </c>
       <c r="E157" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F157" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G157" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H157">
         <v>600</v>
@@ -5107,13 +5149,13 @@
         <v>112</v>
       </c>
       <c r="E158" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F158" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G158" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H158">
         <v>600</v>
@@ -5133,13 +5175,13 @@
         <v>113</v>
       </c>
       <c r="E159" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F159" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G159" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H159">
         <v>600</v>
@@ -5159,13 +5201,13 @@
         <v>114</v>
       </c>
       <c r="E160" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F160" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G160" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H160">
         <v>600</v>
@@ -5185,13 +5227,13 @@
         <v>115</v>
       </c>
       <c r="E161" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F161" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G161" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H161">
         <v>600</v>
@@ -5211,13 +5253,13 @@
         <v>116</v>
       </c>
       <c r="E162" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F162" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G162" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H162">
         <v>600</v>
@@ -5237,13 +5279,13 @@
         <v>117</v>
       </c>
       <c r="E163" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F163" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G163" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H163">
         <v>600</v>
@@ -5263,13 +5305,13 @@
         <v>42</v>
       </c>
       <c r="E164" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F164" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G164" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H164">
         <v>600</v>
@@ -5289,13 +5331,13 @@
         <v>118</v>
       </c>
       <c r="E165" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F165" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G165" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H165">
         <v>600</v>
@@ -5315,13 +5357,13 @@
         <v>39</v>
       </c>
       <c r="E166" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F166" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G166" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H166">
         <v>600</v>
@@ -5341,13 +5383,13 @@
         <v>119</v>
       </c>
       <c r="E167" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F167" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G167" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H167">
         <v>600</v>
@@ -5367,13 +5409,13 @@
         <v>120</v>
       </c>
       <c r="E168" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F168" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G168" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H168">
         <v>600</v>
@@ -5393,13 +5435,13 @@
         <v>121</v>
       </c>
       <c r="E169" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F169" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G169" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H169">
         <v>600</v>
@@ -5419,13 +5461,13 @@
         <v>122</v>
       </c>
       <c r="E170" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F170" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G170" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H170">
         <v>600</v>
@@ -5445,13 +5487,13 @@
         <v>111</v>
       </c>
       <c r="E171" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F171" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G171" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H171">
         <v>600</v>
@@ -5471,13 +5513,13 @@
         <v>122</v>
       </c>
       <c r="E172" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F172" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G172" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H172">
         <v>600</v>
@@ -5497,13 +5539,13 @@
         <v>123</v>
       </c>
       <c r="E173" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F173" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G173" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H173">
         <v>600</v>
@@ -5523,13 +5565,13 @@
         <v>124</v>
       </c>
       <c r="E174" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F174" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G174" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H174">
         <v>600</v>
@@ -5549,13 +5591,13 @@
         <v>96</v>
       </c>
       <c r="E175" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F175" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G175" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H175">
         <v>600</v>
@@ -5575,13 +5617,13 @@
         <v>91</v>
       </c>
       <c r="E176" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F176" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G176" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H176">
         <v>600</v>
@@ -5601,13 +5643,13 @@
         <v>125</v>
       </c>
       <c r="E177" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F177" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G177" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H177">
         <v>600</v>
@@ -5627,13 +5669,13 @@
         <v>120</v>
       </c>
       <c r="E178" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F178" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G178" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H178">
         <v>600</v>
@@ -5653,13 +5695,13 @@
         <v>119</v>
       </c>
       <c r="E179" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F179" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G179" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H179">
         <v>600</v>
@@ -5679,13 +5721,13 @@
         <v>126</v>
       </c>
       <c r="E180" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F180" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G180" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H180">
         <v>600</v>
@@ -5705,13 +5747,13 @@
         <v>127</v>
       </c>
       <c r="E181" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F181" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G181" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H181">
         <v>600</v>
@@ -5731,13 +5773,13 @@
         <v>128</v>
       </c>
       <c r="E182" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F182" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G182" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H182">
         <v>600</v>
@@ -5757,13 +5799,13 @@
         <v>128</v>
       </c>
       <c r="E183" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F183" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G183" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H183">
         <v>600</v>
@@ -5783,13 +5825,13 @@
         <v>129</v>
       </c>
       <c r="E184" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F184" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G184" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H184">
         <v>600</v>
@@ -5809,13 +5851,13 @@
         <v>130</v>
       </c>
       <c r="E185" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F185" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G185" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H185">
         <v>600</v>
@@ -5835,13 +5877,13 @@
         <v>131</v>
       </c>
       <c r="E186" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F186" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G186" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H186">
         <v>600</v>
@@ -5861,13 +5903,13 @@
         <v>132</v>
       </c>
       <c r="E187" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F187" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G187" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H187">
         <v>600</v>
@@ -5887,13 +5929,13 @@
         <v>112</v>
       </c>
       <c r="E188" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F188" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G188" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H188">
         <v>600</v>
@@ -5913,13 +5955,13 @@
         <v>133</v>
       </c>
       <c r="E189" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F189" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G189" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H189">
         <v>600</v>
@@ -5939,13 +5981,13 @@
         <v>134</v>
       </c>
       <c r="E190" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F190" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G190" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H190">
         <v>600</v>
@@ -5965,13 +6007,13 @@
         <v>135</v>
       </c>
       <c r="E191" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F191" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G191" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H191">
         <v>600</v>
@@ -5991,13 +6033,13 @@
         <v>136</v>
       </c>
       <c r="E192" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F192" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G192" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H192">
         <v>600</v>
@@ -6017,13 +6059,13 @@
         <v>137</v>
       </c>
       <c r="E193" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F193" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G193" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H193">
         <v>600</v>
@@ -6043,13 +6085,13 @@
         <v>138</v>
       </c>
       <c r="E194" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F194" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G194" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H194">
         <v>600</v>
@@ -6069,13 +6111,13 @@
         <v>107</v>
       </c>
       <c r="E195" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F195" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G195" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H195">
         <v>600</v>
@@ -6095,13 +6137,13 @@
         <v>139</v>
       </c>
       <c r="E196" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F196" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G196" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H196">
         <v>600</v>
@@ -6121,13 +6163,13 @@
         <v>140</v>
       </c>
       <c r="E197" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F197" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G197" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H197">
         <v>600</v>
@@ -6147,13 +6189,13 @@
         <v>122</v>
       </c>
       <c r="E198" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F198" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G198" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H198">
         <v>600</v>
@@ -6173,13 +6215,13 @@
         <v>141</v>
       </c>
       <c r="E199" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F199" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G199" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H199">
         <v>600</v>
@@ -6199,13 +6241,13 @@
         <v>111</v>
       </c>
       <c r="E200" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F200" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G200" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H200">
         <v>600</v>
@@ -6225,13 +6267,13 @@
         <v>142</v>
       </c>
       <c r="E201" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F201" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G201" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H201">
         <v>600</v>
@@ -6251,13 +6293,13 @@
         <v>143</v>
       </c>
       <c r="E202" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F202" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G202" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H202">
         <v>600</v>
@@ -6277,13 +6319,13 @@
         <v>126</v>
       </c>
       <c r="E203" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F203" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G203" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H203">
         <v>600</v>
@@ -6303,13 +6345,13 @@
         <v>144</v>
       </c>
       <c r="E204" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F204" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G204" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H204">
         <v>600</v>
@@ -6329,13 +6371,13 @@
         <v>21</v>
       </c>
       <c r="E205" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F205" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G205" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H205">
         <v>600</v>
@@ -6355,13 +6397,13 @@
         <v>145</v>
       </c>
       <c r="E206" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F206" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G206" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H206">
         <v>600</v>
@@ -6381,13 +6423,13 @@
         <v>146</v>
       </c>
       <c r="E207" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F207" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G207" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H207">
         <v>500</v>
@@ -6407,13 +6449,13 @@
         <v>119</v>
       </c>
       <c r="E208" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F208" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G208" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H208">
         <v>600</v>
@@ -6433,13 +6475,13 @@
         <v>121</v>
       </c>
       <c r="E209" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F209" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G209" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H209">
         <v>600</v>
@@ -6459,13 +6501,13 @@
         <v>130</v>
       </c>
       <c r="E210" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F210" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G210" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H210">
         <v>600</v>
@@ -6485,13 +6527,13 @@
         <v>122</v>
       </c>
       <c r="E211" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F211" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G211" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H211">
         <v>600</v>
@@ -6511,13 +6553,13 @@
         <v>147</v>
       </c>
       <c r="E212" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F212" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G212" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H212">
         <v>600</v>
@@ -6537,13 +6579,13 @@
         <v>97</v>
       </c>
       <c r="E213" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F213" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G213" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H213">
         <v>600</v>
@@ -6563,13 +6605,13 @@
         <v>131</v>
       </c>
       <c r="E214" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F214" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G214" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H214">
         <v>600</v>
@@ -6589,13 +6631,13 @@
         <v>131</v>
       </c>
       <c r="E215" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F215" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G215" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H215">
         <v>600</v>
@@ -6615,13 +6657,13 @@
         <v>91</v>
       </c>
       <c r="E216" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F216" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G216" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H216">
         <v>600</v>
@@ -6641,13 +6683,13 @@
         <v>91</v>
       </c>
       <c r="E217" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F217" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G217" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H217">
         <v>600</v>
@@ -6667,13 +6709,13 @@
         <v>148</v>
       </c>
       <c r="E218" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F218" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G218" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H218">
         <v>600</v>
@@ -6693,13 +6735,13 @@
         <v>149</v>
       </c>
       <c r="E219" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F219" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G219" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H219">
         <v>600</v>
@@ -6719,13 +6761,13 @@
         <v>136</v>
       </c>
       <c r="E220" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F220" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G220" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H220">
         <v>600</v>
@@ -6745,13 +6787,13 @@
         <v>131</v>
       </c>
       <c r="E221" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F221" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G221" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H221">
         <v>600</v>
@@ -6771,13 +6813,13 @@
         <v>150</v>
       </c>
       <c r="E222" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F222" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G222" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H222">
         <v>600</v>
@@ -6797,13 +6839,13 @@
         <v>151</v>
       </c>
       <c r="E223" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F223" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G223" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H223">
         <v>600</v>
@@ -6823,13 +6865,13 @@
         <v>152</v>
       </c>
       <c r="E224" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F224" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G224" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H224">
         <v>600</v>
@@ -6849,13 +6891,13 @@
         <v>153</v>
       </c>
       <c r="E225" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F225" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G225" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H225">
         <v>600</v>
@@ -6875,13 +6917,13 @@
         <v>154</v>
       </c>
       <c r="E226" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F226" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G226" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H226">
         <v>600</v>
@@ -6901,13 +6943,13 @@
         <v>155</v>
       </c>
       <c r="E227" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F227" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G227" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H227">
         <v>600</v>
@@ -6927,13 +6969,13 @@
         <v>156</v>
       </c>
       <c r="E228" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F228" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G228" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H228">
         <v>600</v>
@@ -6953,13 +6995,13 @@
         <v>157</v>
       </c>
       <c r="E229" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F229" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G229" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H229">
         <v>600</v>
@@ -6979,13 +7021,13 @@
         <v>71</v>
       </c>
       <c r="E230" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F230" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G230" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H230">
         <v>600</v>
@@ -7005,13 +7047,13 @@
         <v>125</v>
       </c>
       <c r="E231" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F231" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G231" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H231">
         <v>600</v>
@@ -7031,13 +7073,13 @@
         <v>115</v>
       </c>
       <c r="E232" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F232" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G232" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H232">
         <v>600</v>
@@ -7057,13 +7099,13 @@
         <v>91</v>
       </c>
       <c r="E233" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F233" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G233" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H233">
         <v>600</v>
@@ -7083,13 +7125,13 @@
         <v>158</v>
       </c>
       <c r="E234" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F234" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G234" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H234">
         <v>600</v>
@@ -7109,13 +7151,13 @@
         <v>159</v>
       </c>
       <c r="E235" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F235" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G235" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H235">
         <v>600</v>
@@ -7135,13 +7177,13 @@
         <v>39</v>
       </c>
       <c r="E236" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F236" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G236" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H236">
         <v>600</v>
@@ -7161,13 +7203,13 @@
         <v>40</v>
       </c>
       <c r="E237" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F237" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G237" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H237">
         <v>600</v>
@@ -7187,13 +7229,13 @@
         <v>83</v>
       </c>
       <c r="E238" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F238" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G238" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H238">
         <v>600</v>
@@ -7213,13 +7255,13 @@
         <v>160</v>
       </c>
       <c r="E239" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F239" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G239" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H239">
         <v>600</v>
@@ -7239,13 +7281,13 @@
         <v>161</v>
       </c>
       <c r="E240" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F240" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G240" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H240">
         <v>600</v>
@@ -7265,13 +7307,13 @@
         <v>91</v>
       </c>
       <c r="E241" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F241" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G241" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H241">
         <v>600</v>
@@ -7291,13 +7333,13 @@
         <v>114</v>
       </c>
       <c r="E242" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F242" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G242" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H242">
         <v>600</v>
@@ -7317,13 +7359,13 @@
         <v>157</v>
       </c>
       <c r="E243" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F243" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G243" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H243">
         <v>600</v>
@@ -7343,13 +7385,13 @@
         <v>162</v>
       </c>
       <c r="E244" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F244" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G244" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H244">
         <v>600</v>
@@ -7369,13 +7411,13 @@
         <v>130</v>
       </c>
       <c r="E245" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F245" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G245" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H245">
         <v>600</v>
@@ -7395,13 +7437,13 @@
         <v>163</v>
       </c>
       <c r="E246" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F246" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G246" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H246">
         <v>600</v>
@@ -7421,13 +7463,13 @@
         <v>142</v>
       </c>
       <c r="E247" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F247" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G247" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H247">
         <v>600</v>
@@ -7447,13 +7489,13 @@
         <v>164</v>
       </c>
       <c r="E248" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F248" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G248" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H248">
         <v>600</v>
@@ -7473,13 +7515,13 @@
         <v>165</v>
       </c>
       <c r="E249" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F249" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G249" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H249">
         <v>600</v>
@@ -7499,13 +7541,13 @@
         <v>122</v>
       </c>
       <c r="E250" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F250" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G250" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H250">
         <v>600</v>
@@ -7525,13 +7567,13 @@
         <v>143</v>
       </c>
       <c r="E251" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F251" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G251" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H251">
         <v>600</v>
@@ -7551,13 +7593,13 @@
         <v>166</v>
       </c>
       <c r="E252" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F252" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G252" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H252">
         <v>600</v>
@@ -7577,13 +7619,13 @@
         <v>165</v>
       </c>
       <c r="E253" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F253" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G253" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H253">
         <v>600</v>
@@ -7603,13 +7645,13 @@
         <v>83</v>
       </c>
       <c r="E254" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F254" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G254" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H254">
         <v>600</v>
@@ -7629,13 +7671,13 @@
         <v>111</v>
       </c>
       <c r="E255" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F255" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G255" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H255">
         <v>600</v>
@@ -7655,13 +7697,13 @@
         <v>130</v>
       </c>
       <c r="E256" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F256" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G256" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H256">
         <v>600</v>
@@ -7681,13 +7723,13 @@
         <v>150</v>
       </c>
       <c r="E257" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F257" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G257" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H257">
         <v>600</v>
@@ -7707,13 +7749,13 @@
         <v>122</v>
       </c>
       <c r="E258" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F258" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G258" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H258">
         <v>600</v>
@@ -7733,13 +7775,13 @@
         <v>167</v>
       </c>
       <c r="E259" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F259" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G259" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H259">
         <v>600</v>
@@ -7759,13 +7801,13 @@
         <v>146</v>
       </c>
       <c r="E260" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F260" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G260" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H260">
         <v>600</v>
@@ -7785,13 +7827,13 @@
         <v>168</v>
       </c>
       <c r="E261" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F261" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G261" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H261">
         <v>600</v>
@@ -7811,13 +7853,13 @@
         <v>169</v>
       </c>
       <c r="E262" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F262" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G262" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H262">
         <v>600</v>
@@ -7837,13 +7879,13 @@
         <v>59</v>
       </c>
       <c r="E263" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F263" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G263" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H263">
         <v>600</v>
@@ -7863,13 +7905,13 @@
         <v>152</v>
       </c>
       <c r="E264" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F264" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G264" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H264">
         <v>600</v>
@@ -7889,13 +7931,13 @@
         <v>152</v>
       </c>
       <c r="E265" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F265" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G265" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H265">
         <v>600</v>
@@ -7915,13 +7957,13 @@
         <v>142</v>
       </c>
       <c r="E266" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F266" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G266" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H266">
         <v>600</v>
@@ -7941,13 +7983,13 @@
         <v>170</v>
       </c>
       <c r="E267" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F267" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G267" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H267">
         <v>600</v>
@@ -7967,13 +8009,13 @@
         <v>171</v>
       </c>
       <c r="E268" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F268" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G268" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H268">
         <v>600</v>
@@ -7993,13 +8035,13 @@
         <v>152</v>
       </c>
       <c r="E269" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F269" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G269" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H269">
         <v>600</v>
@@ -8019,13 +8061,13 @@
         <v>131</v>
       </c>
       <c r="E270" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F270" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G270" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H270">
         <v>600</v>
@@ -8045,13 +8087,13 @@
         <v>110</v>
       </c>
       <c r="E271" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F271" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G271" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H271">
         <v>600</v>
@@ -8071,13 +8113,13 @@
         <v>172</v>
       </c>
       <c r="E272" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F272" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G272" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H272">
         <v>600</v>
@@ -8097,13 +8139,13 @@
         <v>173</v>
       </c>
       <c r="E273" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F273" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G273" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H273">
         <v>600</v>
@@ -8123,13 +8165,13 @@
         <v>174</v>
       </c>
       <c r="E274" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F274" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G274" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H274">
         <v>600</v>
@@ -8149,13 +8191,13 @@
         <v>175</v>
       </c>
       <c r="E275" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F275" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G275" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H275">
         <v>600</v>
@@ -8175,13 +8217,13 @@
         <v>176</v>
       </c>
       <c r="E276" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F276" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G276" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H276">
         <v>600</v>
@@ -8201,13 +8243,13 @@
         <v>126</v>
       </c>
       <c r="E277" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F277" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G277" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H277">
         <v>600</v>
@@ -8227,13 +8269,13 @@
         <v>177</v>
       </c>
       <c r="E278" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F278" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G278" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H278">
         <v>600</v>
@@ -8253,13 +8295,13 @@
         <v>178</v>
       </c>
       <c r="E279" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F279" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G279" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H279">
         <v>600</v>
@@ -8279,13 +8321,13 @@
         <v>179</v>
       </c>
       <c r="E280" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F280" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G280" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H280">
         <v>600</v>
@@ -8305,13 +8347,13 @@
         <v>99</v>
       </c>
       <c r="E281" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F281" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G281" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H281">
         <v>600</v>
@@ -8331,13 +8373,13 @@
         <v>180</v>
       </c>
       <c r="E282" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F282" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G282" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H282">
         <v>600</v>
@@ -8357,13 +8399,13 @@
         <v>151</v>
       </c>
       <c r="E283" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F283" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G283" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H283">
         <v>600</v>
@@ -8383,13 +8425,13 @@
         <v>136</v>
       </c>
       <c r="E284" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F284" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G284" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H284">
         <v>600</v>
@@ -8409,13 +8451,13 @@
         <v>181</v>
       </c>
       <c r="E285" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F285" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G285" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H285">
         <v>600</v>
@@ -8435,13 +8477,13 @@
         <v>182</v>
       </c>
       <c r="E286" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F286" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G286" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H286">
         <v>600</v>
@@ -8461,13 +8503,13 @@
         <v>136</v>
       </c>
       <c r="E287" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F287" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G287" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H287">
         <v>600</v>
@@ -8487,13 +8529,13 @@
         <v>119</v>
       </c>
       <c r="E288" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F288" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G288" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H288">
         <v>600</v>
@@ -8513,13 +8555,13 @@
         <v>183</v>
       </c>
       <c r="E289" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F289" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G289" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H289">
         <v>600</v>
@@ -8539,13 +8581,13 @@
         <v>132</v>
       </c>
       <c r="E290" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F290" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G290" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H290">
         <v>600</v>
@@ -8565,13 +8607,13 @@
         <v>166</v>
       </c>
       <c r="E291" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F291" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G291" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H291">
         <v>600</v>
@@ -8591,13 +8633,13 @@
         <v>184</v>
       </c>
       <c r="E292" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F292" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G292" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H292">
         <v>600</v>
@@ -8617,13 +8659,13 @@
         <v>161</v>
       </c>
       <c r="E293" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F293" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G293" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H293">
         <v>600</v>
@@ -8643,13 +8685,13 @@
         <v>155</v>
       </c>
       <c r="E294" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F294" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G294" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H294">
         <v>600</v>
@@ -8669,13 +8711,13 @@
         <v>158</v>
       </c>
       <c r="E295" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F295" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G295" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H295">
         <v>600</v>
@@ -8695,13 +8737,13 @@
         <v>185</v>
       </c>
       <c r="E296" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F296" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G296" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H296">
         <v>600</v>
@@ -8721,13 +8763,13 @@
         <v>186</v>
       </c>
       <c r="E297" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F297" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G297" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H297">
         <v>600</v>
@@ -8747,13 +8789,13 @@
         <v>187</v>
       </c>
       <c r="E298" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F298" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G298" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H298">
         <v>600</v>
@@ -8773,13 +8815,13 @@
         <v>188</v>
       </c>
       <c r="E299" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F299" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G299" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H299">
         <v>600</v>
@@ -8799,13 +8841,13 @@
         <v>189</v>
       </c>
       <c r="E300" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F300" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G300" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H300">
         <v>600</v>
@@ -8825,13 +8867,13 @@
         <v>150</v>
       </c>
       <c r="E301" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F301" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G301" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H301">
         <v>600</v>
@@ -8851,13 +8893,13 @@
         <v>59</v>
       </c>
       <c r="E302" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F302" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G302" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H302">
         <v>600</v>
@@ -8877,13 +8919,13 @@
         <v>182</v>
       </c>
       <c r="E303" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F303" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G303" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H303">
         <v>600</v>
@@ -8903,13 +8945,13 @@
         <v>132</v>
       </c>
       <c r="E304" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F304" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G304" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H304">
         <v>600</v>
@@ -8929,13 +8971,13 @@
         <v>152</v>
       </c>
       <c r="E305" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F305" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G305" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H305">
         <v>600</v>
@@ -8955,13 +8997,13 @@
         <v>190</v>
       </c>
       <c r="E306" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F306" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G306" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H306">
         <v>600</v>
@@ -8981,13 +9023,13 @@
         <v>152</v>
       </c>
       <c r="E307" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F307" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G307" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H307">
         <v>600</v>
@@ -9007,13 +9049,13 @@
         <v>191</v>
       </c>
       <c r="E308" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F308" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G308" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H308">
         <v>600</v>
@@ -9033,13 +9075,13 @@
         <v>192</v>
       </c>
       <c r="E309" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F309" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G309" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H309">
         <v>600</v>
@@ -9059,13 +9101,13 @@
         <v>193</v>
       </c>
       <c r="E310" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F310" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G310" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H310">
         <v>600</v>
@@ -9085,13 +9127,13 @@
         <v>194</v>
       </c>
       <c r="E311" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F311" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G311" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H311">
         <v>600</v>
@@ -9111,13 +9153,13 @@
         <v>195</v>
       </c>
       <c r="E312" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F312" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G312" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H312">
         <v>600</v>
@@ -9137,13 +9179,13 @@
         <v>196</v>
       </c>
       <c r="E313" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F313" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G313" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H313">
         <v>600</v>
@@ -9163,13 +9205,13 @@
         <v>195</v>
       </c>
       <c r="E314" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F314" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G314" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H314">
         <v>600</v>
@@ -9189,13 +9231,13 @@
         <v>197</v>
       </c>
       <c r="E315" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F315" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G315" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H315">
         <v>600</v>
@@ -9215,13 +9257,13 @@
         <v>132</v>
       </c>
       <c r="E316" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F316" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G316" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H316">
         <v>600</v>
@@ -9241,13 +9283,13 @@
         <v>167</v>
       </c>
       <c r="E317" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F317" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G317" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H317">
         <v>600</v>
@@ -9267,13 +9309,13 @@
         <v>130</v>
       </c>
       <c r="E318" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F318" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G318" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H318">
         <v>600</v>
@@ -9293,13 +9335,13 @@
         <v>122</v>
       </c>
       <c r="E319" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F319" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G319" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H319">
         <v>600</v>
@@ -9319,13 +9361,13 @@
         <v>198</v>
       </c>
       <c r="E320" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F320" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G320" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H320">
         <v>600</v>
@@ -9345,13 +9387,13 @@
         <v>199</v>
       </c>
       <c r="E321" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F321" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G321" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H321">
         <v>600</v>
@@ -9371,15 +9413,665 @@
         <v>200</v>
       </c>
       <c r="E322" t="s">
+        <v>214</v>
+      </c>
+      <c r="F322" t="s">
+        <v>220</v>
+      </c>
+      <c r="G322" t="s">
+        <v>222</v>
+      </c>
+      <c r="H322">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8">
+      <c r="A323" t="s">
+        <v>9</v>
+      </c>
+      <c r="B323" t="s">
+        <v>10</v>
+      </c>
+      <c r="C323" s="2">
+        <v>45600.52222222222</v>
+      </c>
+      <c r="D323" t="s">
         <v>201</v>
       </c>
-      <c r="F322" t="s">
+      <c r="E323" t="s">
+        <v>214</v>
+      </c>
+      <c r="F323" t="s">
+        <v>221</v>
+      </c>
+      <c r="G323" t="s">
+        <v>222</v>
+      </c>
+      <c r="H323">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8">
+      <c r="A324" t="s">
+        <v>9</v>
+      </c>
+      <c r="B324" t="s">
+        <v>10</v>
+      </c>
+      <c r="C324" s="2">
+        <v>45607.4375</v>
+      </c>
+      <c r="D324" t="s">
+        <v>202</v>
+      </c>
+      <c r="E324" t="s">
+        <v>214</v>
+      </c>
+      <c r="F324" t="s">
+        <v>221</v>
+      </c>
+      <c r="G324" t="s">
+        <v>222</v>
+      </c>
+      <c r="H324">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8">
+      <c r="A325" t="s">
+        <v>9</v>
+      </c>
+      <c r="B325" t="s">
+        <v>10</v>
+      </c>
+      <c r="C325" s="2">
+        <v>45614.50069444445</v>
+      </c>
+      <c r="D325" t="s">
+        <v>203</v>
+      </c>
+      <c r="E325" t="s">
+        <v>214</v>
+      </c>
+      <c r="F325" t="s">
+        <v>221</v>
+      </c>
+      <c r="G325" t="s">
+        <v>222</v>
+      </c>
+      <c r="H325">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8">
+      <c r="A326" t="s">
+        <v>9</v>
+      </c>
+      <c r="B326" t="s">
+        <v>10</v>
+      </c>
+      <c r="C326" s="2">
+        <v>45621.47708333333</v>
+      </c>
+      <c r="D326" t="s">
+        <v>171</v>
+      </c>
+      <c r="E326" t="s">
+        <v>214</v>
+      </c>
+      <c r="F326" t="s">
+        <v>221</v>
+      </c>
+      <c r="G326" t="s">
+        <v>222</v>
+      </c>
+      <c r="H326">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8">
+      <c r="A327" t="s">
+        <v>9</v>
+      </c>
+      <c r="B327" t="s">
+        <v>10</v>
+      </c>
+      <c r="C327" s="2">
+        <v>45635.50555555556</v>
+      </c>
+      <c r="D327" t="s">
+        <v>96</v>
+      </c>
+      <c r="E327" t="s">
+        <v>214</v>
+      </c>
+      <c r="F327" t="s">
+        <v>221</v>
+      </c>
+      <c r="G327" t="s">
+        <v>222</v>
+      </c>
+      <c r="H327">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8">
+      <c r="A328" t="s">
+        <v>9</v>
+      </c>
+      <c r="B328" t="s">
+        <v>10</v>
+      </c>
+      <c r="C328" s="2">
+        <v>45642.48680555556</v>
+      </c>
+      <c r="D328" t="s">
+        <v>132</v>
+      </c>
+      <c r="E328" t="s">
+        <v>214</v>
+      </c>
+      <c r="F328" t="s">
+        <v>221</v>
+      </c>
+      <c r="G328" t="s">
+        <v>222</v>
+      </c>
+      <c r="H328">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8">
+      <c r="A329" t="s">
+        <v>9</v>
+      </c>
+      <c r="B329" t="s">
+        <v>10</v>
+      </c>
+      <c r="C329" s="2">
+        <v>45649.47430555556</v>
+      </c>
+      <c r="D329" t="s">
+        <v>204</v>
+      </c>
+      <c r="E329" t="s">
+        <v>214</v>
+      </c>
+      <c r="F329" t="s">
+        <v>221</v>
+      </c>
+      <c r="G329" t="s">
+        <v>222</v>
+      </c>
+      <c r="H329">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8">
+      <c r="A330" t="s">
+        <v>9</v>
+      </c>
+      <c r="B330" t="s">
+        <v>10</v>
+      </c>
+      <c r="C330" s="2">
+        <v>45656.45069444444</v>
+      </c>
+      <c r="D330" t="s">
+        <v>205</v>
+      </c>
+      <c r="E330" t="s">
+        <v>214</v>
+      </c>
+      <c r="F330" t="s">
+        <v>221</v>
+      </c>
+      <c r="G330" t="s">
+        <v>222</v>
+      </c>
+      <c r="H330">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8">
+      <c r="A331" t="s">
+        <v>9</v>
+      </c>
+      <c r="B331" t="s">
+        <v>10</v>
+      </c>
+      <c r="C331" s="2">
+        <v>45663.48819444444</v>
+      </c>
+      <c r="D331" t="s">
+        <v>125</v>
+      </c>
+      <c r="E331" t="s">
+        <v>214</v>
+      </c>
+      <c r="F331" t="s">
+        <v>221</v>
+      </c>
+      <c r="G331" t="s">
+        <v>222</v>
+      </c>
+      <c r="H331">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8">
+      <c r="A332" t="s">
+        <v>9</v>
+      </c>
+      <c r="B332" t="s">
+        <v>10</v>
+      </c>
+      <c r="C332" s="2">
+        <v>45670.49583333333</v>
+      </c>
+      <c r="D332" t="s">
+        <v>206</v>
+      </c>
+      <c r="E332" t="s">
+        <v>214</v>
+      </c>
+      <c r="F332" t="s">
+        <v>221</v>
+      </c>
+      <c r="G332" t="s">
+        <v>222</v>
+      </c>
+      <c r="H332">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8">
+      <c r="A333" t="s">
+        <v>9</v>
+      </c>
+      <c r="B333" t="s">
+        <v>10</v>
+      </c>
+      <c r="C333" s="2">
+        <v>45678.53194444445</v>
+      </c>
+      <c r="D333" t="s">
         <v>207</v>
       </c>
-      <c r="G322" t="s">
+      <c r="E333" t="s">
+        <v>214</v>
+      </c>
+      <c r="F333" t="s">
+        <v>221</v>
+      </c>
+      <c r="G333" t="s">
+        <v>222</v>
+      </c>
+      <c r="H333">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8">
+      <c r="A334" t="s">
+        <v>9</v>
+      </c>
+      <c r="B334" t="s">
+        <v>10</v>
+      </c>
+      <c r="C334" s="2">
+        <v>45684.50347222222</v>
+      </c>
+      <c r="D334" t="s">
         <v>208</v>
       </c>
-      <c r="H322">
+      <c r="E334" t="s">
+        <v>214</v>
+      </c>
+      <c r="F334" t="s">
+        <v>221</v>
+      </c>
+      <c r="G334" t="s">
+        <v>222</v>
+      </c>
+      <c r="H334">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8">
+      <c r="A335" t="s">
+        <v>9</v>
+      </c>
+      <c r="B335" t="s">
+        <v>10</v>
+      </c>
+      <c r="C335" s="2">
+        <v>45691.50972222222</v>
+      </c>
+      <c r="D335" t="s">
+        <v>209</v>
+      </c>
+      <c r="E335" t="s">
+        <v>214</v>
+      </c>
+      <c r="F335" t="s">
+        <v>221</v>
+      </c>
+      <c r="G335" t="s">
+        <v>222</v>
+      </c>
+      <c r="H335">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8">
+      <c r="A336" t="s">
+        <v>9</v>
+      </c>
+      <c r="B336" t="s">
+        <v>10</v>
+      </c>
+      <c r="C336" s="2">
+        <v>45698.49444444444</v>
+      </c>
+      <c r="D336" t="s">
+        <v>159</v>
+      </c>
+      <c r="E336" t="s">
+        <v>214</v>
+      </c>
+      <c r="F336" t="s">
+        <v>221</v>
+      </c>
+      <c r="G336" t="s">
+        <v>222</v>
+      </c>
+      <c r="H336">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8">
+      <c r="A337" t="s">
+        <v>9</v>
+      </c>
+      <c r="B337" t="s">
+        <v>10</v>
+      </c>
+      <c r="C337" s="2">
+        <v>45705.49444444444</v>
+      </c>
+      <c r="D337" t="s">
+        <v>122</v>
+      </c>
+      <c r="E337" t="s">
+        <v>214</v>
+      </c>
+      <c r="F337" t="s">
+        <v>221</v>
+      </c>
+      <c r="G337" t="s">
+        <v>222</v>
+      </c>
+      <c r="H337">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8">
+      <c r="A338" t="s">
+        <v>9</v>
+      </c>
+      <c r="B338" t="s">
+        <v>10</v>
+      </c>
+      <c r="C338" s="2">
+        <v>45712.44375</v>
+      </c>
+      <c r="D338" t="s">
+        <v>158</v>
+      </c>
+      <c r="E338" t="s">
+        <v>214</v>
+      </c>
+      <c r="F338" t="s">
+        <v>221</v>
+      </c>
+      <c r="G338" t="s">
+        <v>222</v>
+      </c>
+      <c r="H338">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8">
+      <c r="A339" t="s">
+        <v>9</v>
+      </c>
+      <c r="B339" t="s">
+        <v>10</v>
+      </c>
+      <c r="C339" s="2">
+        <v>45719.43055555555</v>
+      </c>
+      <c r="D339" t="s">
+        <v>210</v>
+      </c>
+      <c r="E339" t="s">
+        <v>214</v>
+      </c>
+      <c r="F339" t="s">
+        <v>221</v>
+      </c>
+      <c r="G339" t="s">
+        <v>222</v>
+      </c>
+      <c r="H339">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8">
+      <c r="A340" t="s">
+        <v>9</v>
+      </c>
+      <c r="B340" t="s">
+        <v>10</v>
+      </c>
+      <c r="C340" s="2">
+        <v>45726.48888888889</v>
+      </c>
+      <c r="D340" t="s">
+        <v>40</v>
+      </c>
+      <c r="E340" t="s">
+        <v>214</v>
+      </c>
+      <c r="F340" t="s">
+        <v>221</v>
+      </c>
+      <c r="G340" t="s">
+        <v>222</v>
+      </c>
+      <c r="H340">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8">
+      <c r="A341" t="s">
+        <v>9</v>
+      </c>
+      <c r="B341" t="s">
+        <v>10</v>
+      </c>
+      <c r="C341" s="2">
+        <v>45733.44513888889</v>
+      </c>
+      <c r="D341" t="s">
+        <v>211</v>
+      </c>
+      <c r="E341" t="s">
+        <v>214</v>
+      </c>
+      <c r="F341" t="s">
+        <v>221</v>
+      </c>
+      <c r="G341" t="s">
+        <v>222</v>
+      </c>
+      <c r="H341">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8">
+      <c r="A342" t="s">
+        <v>9</v>
+      </c>
+      <c r="B342" t="s">
+        <v>10</v>
+      </c>
+      <c r="C342" s="2">
+        <v>45740.48541666667</v>
+      </c>
+      <c r="D342" t="s">
+        <v>212</v>
+      </c>
+      <c r="E342" t="s">
+        <v>214</v>
+      </c>
+      <c r="F342" t="s">
+        <v>221</v>
+      </c>
+      <c r="G342" t="s">
+        <v>222</v>
+      </c>
+      <c r="H342">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8">
+      <c r="A343" t="s">
+        <v>9</v>
+      </c>
+      <c r="B343" t="s">
+        <v>10</v>
+      </c>
+      <c r="C343" s="2">
+        <v>45748.49583333333</v>
+      </c>
+      <c r="D343" t="s">
+        <v>208</v>
+      </c>
+      <c r="E343" t="s">
+        <v>214</v>
+      </c>
+      <c r="F343" t="s">
+        <v>221</v>
+      </c>
+      <c r="G343" t="s">
+        <v>222</v>
+      </c>
+      <c r="H343">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8">
+      <c r="A344" t="s">
+        <v>9</v>
+      </c>
+      <c r="B344" t="s">
+        <v>10</v>
+      </c>
+      <c r="C344" s="2">
+        <v>45754.48194444444</v>
+      </c>
+      <c r="D344" t="s">
+        <v>213</v>
+      </c>
+      <c r="E344" t="s">
+        <v>214</v>
+      </c>
+      <c r="F344" t="s">
+        <v>221</v>
+      </c>
+      <c r="G344" t="s">
+        <v>222</v>
+      </c>
+      <c r="H344">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8">
+      <c r="A345" t="s">
+        <v>9</v>
+      </c>
+      <c r="B345" t="s">
+        <v>10</v>
+      </c>
+      <c r="C345" s="2">
+        <v>45761.525</v>
+      </c>
+      <c r="D345" t="s">
+        <v>97</v>
+      </c>
+      <c r="E345" t="s">
+        <v>214</v>
+      </c>
+      <c r="F345" t="s">
+        <v>221</v>
+      </c>
+      <c r="G345" t="s">
+        <v>222</v>
+      </c>
+      <c r="H345">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8">
+      <c r="A346" t="s">
+        <v>9</v>
+      </c>
+      <c r="B346" t="s">
+        <v>10</v>
+      </c>
+      <c r="C346" s="2">
+        <v>45769.54652777778</v>
+      </c>
+      <c r="D346" t="s">
+        <v>121</v>
+      </c>
+      <c r="E346" t="s">
+        <v>214</v>
+      </c>
+      <c r="F346" t="s">
+        <v>221</v>
+      </c>
+      <c r="G346" t="s">
+        <v>222</v>
+      </c>
+      <c r="H346">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8">
+      <c r="A347" t="s">
+        <v>9</v>
+      </c>
+      <c r="B347" t="s">
+        <v>10</v>
+      </c>
+      <c r="C347" s="2">
+        <v>45775.53888888889</v>
+      </c>
+      <c r="D347" t="s">
+        <v>144</v>
+      </c>
+      <c r="E347" t="s">
+        <v>214</v>
+      </c>
+      <c r="F347" t="s">
+        <v>221</v>
+      </c>
+      <c r="G347" t="s">
+        <v>222</v>
+      </c>
+      <c r="H347">
         <v>600</v>
       </c>
     </row>
